--- a/Resources-P3-2-54567.xlsx
+++ b/Resources-P3-2-54567.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Santos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD6FE5-254E-444F-9A2D-71C5FD63E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E719BE-5136-409A-8B92-35B10BFE98AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="1" r:id="rId1"/>
-    <sheet name="Planned Availability" sheetId="2" r:id="rId2"/>
-    <sheet name="Attendance Tracker" sheetId="3" r:id="rId3"/>
-    <sheet name="Team roles" sheetId="4" r:id="rId4"/>
+    <sheet name="Planned Availability" sheetId="6" r:id="rId2"/>
+    <sheet name="Attendance Tracker" sheetId="7" r:id="rId3"/>
+    <sheet name="Team roles" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mghk4+NJamXr6rqbHkyYsc3UL0WoQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -50,16 +47,34 @@
     <t>Date</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
     <t>Week Number</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>P3-2</t>
+    <t>Team Oracle</t>
   </si>
   <si>
     <t>Resource Manager</t>
+  </si>
+  <si>
+    <t>Team Wizard</t>
+  </si>
+  <si>
+    <t>P3-2</t>
   </si>
   <si>
     <t>Ana Santos</t>
@@ -119,9 +134,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Work for Project</t>
   </si>
   <si>
@@ -137,37 +149,22 @@
     <t>personal</t>
   </si>
   <si>
-    <t>NOVEMBER</t>
-  </si>
-  <si>
-    <t>DECEMBER</t>
-  </si>
-  <si>
     <t>Work Project</t>
   </si>
   <si>
     <t>Personal</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Sick</t>
   </si>
   <si>
-    <t>Team Wizard</t>
+    <t>Phase</t>
   </si>
   <si>
     <t>Team Critic</t>
   </si>
   <si>
     <t>Team Spokesman</t>
-  </si>
-  <si>
-    <t>Team Oracle</t>
-  </si>
-  <si>
-    <t>Phase</t>
   </si>
   <si>
     <t>55286 : Bruno Ramos</t>
@@ -191,15 +188,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -214,14 +214,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -239,12 +239,12 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color rgb="FF003366"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF003366"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -270,17 +270,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF003366"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF980000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -291,7 +287,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF980000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -315,56 +311,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0066CC"/>
-        <bgColor rgb="FF0066CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF003366"/>
-        <bgColor rgb="FF003366"/>
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF333399"/>
+        <fgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF1F497D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
+        <fgColor rgb="FFEEECE1"/>
+        <bgColor rgb="FFEEECE1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF8064A2"/>
+        <bgColor rgb="FF8064A2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFC0504D"/>
+        <bgColor rgb="FFC0504D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FFF79646"/>
       </patternFill>
     </fill>
     <fill>
@@ -375,30 +371,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993366"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF741B47"/>
+        <bgColor rgb="FF741B47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF3366FF"/>
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF339966"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993300"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF85200C"/>
+        <bgColor rgb="FF85200C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -423,43 +419,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -497,30 +462,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -529,29 +470,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -584,117 +502,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,9 +619,17 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +662,7 @@
         <xdr:cNvPr id="2" name="image2.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDE3957-591C-473C-8389-E78B706C6FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A9F27A-3980-4187-8AA5-DC80C8E4AB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,10 +675,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="1000125"/>
-          <a:ext cx="1724025" cy="1676400"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -766,17 +686,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1352550" cy="1714500"/>
+    <xdr:ext cx="1390650" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image4.png" title="Image">
+        <xdr:cNvPr id="3" name="image3.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133997F9-DF15-4168-94DF-D303B42489E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BC1655-48C0-4B43-971B-6769DB2FEE01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,10 +709,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="1000125"/>
-          <a:ext cx="1352550" cy="1714500"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -803,18 +719,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1390650" cy="1714500"/>
+    <xdr:ext cx="1352550" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image3.png" title="Image">
+        <xdr:cNvPr id="4" name="image4.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ADA731-107F-4DBF-A677-32E867E358D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F86D2-0D69-43DE-9A88-5337F070B894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,10 +743,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="1000125"/>
-          <a:ext cx="1390650" cy="1714500"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -841,18 +753,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057275" cy="1714500"/>
+    <xdr:ext cx="1466850" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image6.png" title="Image">
+        <xdr:cNvPr id="5" name="image5.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85406D9-8F14-4783-94BD-CF10EFA56025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7F027A-B689-4C1E-AD90-155985091322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10391775" y="1000125"/>
-          <a:ext cx="1057275" cy="1714500"/>
+          <a:off x="13173075" y="1047750"/>
+          <a:ext cx="1466850" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,18 +791,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1466850" cy="1714500"/>
+    <xdr:ext cx="1057275" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image5.png" title="Image">
+        <xdr:cNvPr id="6" name="image6.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72068140-3DCC-4462-9D19-599ADBF5DBEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAF6665-1A11-4E2D-BFCB-28B85722D5E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,10 +815,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13173075" y="1000125"/>
-          <a:ext cx="1466850" cy="1714500"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1115,15 +1023,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1043,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1139,7 +1051,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1147,8 +1059,8 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>44127</v>
+      <c r="B4" s="3">
+        <v>44120</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2148,24 +2060,26 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0066CC"/>
+    <tabColor rgb="FF1155CC"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="32" width="14.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,346 +2087,346 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44127</v>
+        <v>44120</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="13" t="s">
+      <c r="J5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>12</v>
+      <c r="X5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15">
+        <v>8</v>
+      </c>
+      <c r="J6" s="15">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10</v>
+      </c>
+      <c r="L6" s="15">
+        <v>11</v>
+      </c>
+      <c r="M6" s="15">
+        <v>12</v>
+      </c>
+      <c r="N6" s="15">
+        <v>13</v>
+      </c>
+      <c r="O6" s="15">
+        <v>14</v>
+      </c>
+      <c r="P6" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>16</v>
+      </c>
+      <c r="R6" s="15">
+        <v>17</v>
+      </c>
+      <c r="S6" s="15">
         <v>18</v>
       </c>
-      <c r="B6" s="15">
-        <v>44119</v>
-      </c>
-      <c r="C6" s="15">
-        <v>44120</v>
-      </c>
-      <c r="D6" s="15">
-        <v>44121</v>
-      </c>
-      <c r="E6" s="15">
-        <v>44122</v>
-      </c>
-      <c r="F6" s="15">
-        <v>44123</v>
-      </c>
-      <c r="G6" s="15">
-        <v>44124</v>
-      </c>
-      <c r="H6" s="15">
-        <v>44125</v>
-      </c>
-      <c r="I6" s="15">
-        <v>44126</v>
-      </c>
-      <c r="J6" s="15">
-        <v>44127</v>
-      </c>
-      <c r="K6" s="15">
-        <v>44128</v>
-      </c>
-      <c r="L6" s="15">
-        <v>44129</v>
-      </c>
-      <c r="M6" s="15">
-        <v>44130</v>
-      </c>
-      <c r="N6" s="15">
-        <v>44131</v>
-      </c>
-      <c r="O6" s="15">
-        <v>44132</v>
-      </c>
-      <c r="P6" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>16</v>
-      </c>
-      <c r="R6" s="16">
-        <v>17</v>
-      </c>
-      <c r="S6" s="16">
-        <v>18</v>
-      </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>19</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <v>20</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <v>21</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <v>22</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <v>23</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
         <v>24</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="15">
         <v>25</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="15">
         <v>26</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="15">
         <v>27</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="15">
         <v>28</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="15">
         <v>29</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="15">
         <v>30</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
+      <c r="A7" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18">
@@ -2531,609 +2445,609 @@
       <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="20">
         <v>2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="20">
         <v>3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="20">
         <v>3</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="21">
         <v>4</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="21">
         <v>2</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="21">
         <v>1</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="27">
         <v>1</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="24"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>4</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>3</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="25">
         <v>2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>3</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>2</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <v>3</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>2</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <v>3</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="27">
         <v>3</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="27">
         <v>2.5</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="21">
+      <c r="N8" s="78"/>
+      <c r="O8" s="27">
         <v>2</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="A9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>3</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>2.5</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="25">
         <v>2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="25">
         <v>1.5</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <v>2</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="25">
         <v>2</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="24">
+      <c r="J9" s="29"/>
+      <c r="K9" s="25">
         <v>2.5</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="27">
         <v>3</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="27">
         <v>2</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="27">
         <v>2</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="27">
         <v>2.5</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <v>2</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="30">
         <v>3.5</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="24">
+      <c r="I10" s="31"/>
+      <c r="J10" s="25">
         <v>3</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="25">
         <v>3</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="27">
         <v>2</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="27">
         <v>2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="27">
         <v>2.5</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="27">
         <v>2</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="31"/>
+      <c r="A11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="32"/>
       <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="33">
         <v>3</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="33">
         <v>3</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32">
+      <c r="F11" s="34"/>
+      <c r="G11" s="33">
         <v>1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="33">
         <v>3</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="33">
         <v>2</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="35">
         <v>2.5</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="35">
         <v>2</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="36">
         <v>3</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="36">
         <v>1</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="36">
         <v>1.5</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="36">
         <v>3</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="37">
+      <c r="A12" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="38">
         <f t="shared" ref="B12:AF12" si="0">SUM(B7:B11)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="38">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="38">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="38">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="38">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="38">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="38">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="37">
+      <c r="AA12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="37">
+      <c r="AB12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="37">
+      <c r="AC12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="37">
+      <c r="AD12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="37">
+      <c r="AE12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="37">
+      <c r="AF12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="38" t="s">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="38" t="s">
+      <c r="H13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="38" t="s">
+      <c r="O13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="U13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="38" t="s">
+      <c r="V13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AB13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF13" s="38"/>
+      <c r="AC13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="39"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <v>6</v>
+      </c>
+      <c r="H14" s="15">
+        <v>7</v>
+      </c>
+      <c r="I14" s="15">
+        <v>8</v>
+      </c>
+      <c r="J14" s="15">
+        <v>9</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10</v>
+      </c>
+      <c r="L14" s="15">
+        <v>11</v>
+      </c>
+      <c r="M14" s="15">
+        <v>12</v>
+      </c>
+      <c r="N14" s="15">
+        <v>13</v>
+      </c>
+      <c r="O14" s="15">
+        <v>14</v>
+      </c>
+      <c r="P14" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>16</v>
+      </c>
+      <c r="R14" s="15">
+        <v>17</v>
+      </c>
+      <c r="S14" s="15">
         <v>18</v>
       </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-      <c r="E14" s="16">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16">
-        <v>6</v>
-      </c>
-      <c r="H14" s="16">
-        <v>7</v>
-      </c>
-      <c r="I14" s="16">
-        <v>8</v>
-      </c>
-      <c r="J14" s="16">
-        <v>9</v>
-      </c>
-      <c r="K14" s="16">
-        <v>10</v>
-      </c>
-      <c r="L14" s="16">
-        <v>11</v>
-      </c>
-      <c r="M14" s="16">
-        <v>12</v>
-      </c>
-      <c r="N14" s="16">
-        <v>13</v>
-      </c>
-      <c r="O14" s="16">
-        <v>14</v>
-      </c>
-      <c r="P14" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>16</v>
-      </c>
-      <c r="R14" s="16">
-        <v>17</v>
-      </c>
-      <c r="S14" s="16">
-        <v>18</v>
-      </c>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <v>19</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="15">
         <v>20</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="15">
         <v>21</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="15">
         <v>22</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="15">
         <v>23</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="15">
         <v>24</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="15">
         <v>25</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA14" s="15">
         <v>26</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="15">
         <v>27</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="15">
         <v>28</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AD14" s="15">
         <v>29</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AE14" s="15">
         <v>30</v>
       </c>
-      <c r="AF14" s="16"/>
+      <c r="AF14" s="15"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>8</v>
+      <c r="A15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3143,466 +3057,466 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="14"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="13"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="14"/>
+      <c r="A16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="14"/>
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="14"/>
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="14"/>
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="13"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="37">
+      <c r="A20" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="38">
         <f t="shared" ref="B20:AF20" si="1">SUM(B15:B19)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="37">
+      <c r="Y20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="37">
+      <c r="Z20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="37">
+      <c r="AA20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="37">
+      <c r="AB20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="37">
+      <c r="AC20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="37">
+      <c r="AD20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="37">
+      <c r="AE20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="37">
+      <c r="AF20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="38" t="s">
+      <c r="E21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="38" t="s">
+      <c r="L21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="T21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="U21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="V21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="W21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
+      <c r="S21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>6</v>
+      </c>
+      <c r="H22" s="15">
+        <v>7</v>
+      </c>
+      <c r="I22" s="15">
+        <v>8</v>
+      </c>
+      <c r="J22" s="15">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15">
+        <v>10</v>
+      </c>
+      <c r="L22" s="15">
+        <v>11</v>
+      </c>
+      <c r="M22" s="15">
+        <v>12</v>
+      </c>
+      <c r="N22" s="15">
+        <v>13</v>
+      </c>
+      <c r="O22" s="15">
+        <v>14</v>
+      </c>
+      <c r="P22" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>16</v>
+      </c>
+      <c r="R22" s="15">
+        <v>17</v>
+      </c>
+      <c r="S22" s="15">
         <v>18</v>
       </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4</v>
-      </c>
-      <c r="F22" s="16">
-        <v>5</v>
-      </c>
-      <c r="G22" s="16">
-        <v>6</v>
-      </c>
-      <c r="H22" s="16">
-        <v>7</v>
-      </c>
-      <c r="I22" s="16">
-        <v>8</v>
-      </c>
-      <c r="J22" s="16">
-        <v>9</v>
-      </c>
-      <c r="K22" s="16">
-        <v>10</v>
-      </c>
-      <c r="L22" s="16">
-        <v>11</v>
-      </c>
-      <c r="M22" s="16">
-        <v>12</v>
-      </c>
-      <c r="N22" s="16">
-        <v>13</v>
-      </c>
-      <c r="O22" s="16">
-        <v>14</v>
-      </c>
-      <c r="P22" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>16</v>
-      </c>
-      <c r="R22" s="16">
-        <v>17</v>
-      </c>
-      <c r="S22" s="16">
-        <v>18</v>
-      </c>
-      <c r="T22" s="16">
+      <c r="T22" s="15">
         <v>19</v>
       </c>
-      <c r="U22" s="16">
+      <c r="U22" s="15">
         <v>20</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="15">
         <v>21</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="15">
         <v>22</v>
       </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>8</v>
+      <c r="A23" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3612,350 +3526,350 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="14"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="14"/>
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="14"/>
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="14"/>
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="14"/>
+      <c r="A27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="37">
+      <c r="A28" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="38">
         <f t="shared" ref="B28:AF28" si="2">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="37">
+      <c r="T28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V28" s="37">
+      <c r="V28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W28" s="37">
+      <c r="W28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X28" s="37">
+      <c r="X28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="37">
+      <c r="Y28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="37">
+      <c r="Z28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="37">
+      <c r="AA28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="37">
+      <c r="AB28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="37">
+      <c r="AC28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="37">
+      <c r="AD28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="37">
+      <c r="AE28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="37">
+      <c r="AF28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="73" t="s">
+      <c r="A29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="80"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4932,24 +4846,26 @@
   <mergeCells count="1">
     <mergeCell ref="J29:K29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0066CC"/>
+    <tabColor rgb="FF1155CC"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="32" width="14.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,716 +4873,696 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44127</v>
+        <v>44120</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="A4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="13" t="s">
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="13" t="s">
+      <c r="Q4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>12</v>
+      <c r="X4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
+        <v>8</v>
+      </c>
+      <c r="J5" s="15">
+        <v>9</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15">
+        <v>11</v>
+      </c>
+      <c r="M5" s="15">
+        <v>12</v>
+      </c>
+      <c r="N5" s="15">
+        <v>13</v>
+      </c>
+      <c r="O5" s="15">
+        <v>14</v>
+      </c>
+      <c r="P5" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>16</v>
+      </c>
+      <c r="R5" s="15">
+        <v>17</v>
+      </c>
+      <c r="S5" s="15">
         <v>18</v>
       </c>
-      <c r="B5" s="15">
-        <v>44119</v>
-      </c>
-      <c r="C5" s="15">
-        <v>44120</v>
-      </c>
-      <c r="D5" s="15">
-        <v>44121</v>
-      </c>
-      <c r="E5" s="15">
-        <v>44122</v>
-      </c>
-      <c r="F5" s="15">
-        <v>44123</v>
-      </c>
-      <c r="G5" s="15">
-        <v>44124</v>
-      </c>
-      <c r="H5" s="15">
-        <v>44125</v>
-      </c>
-      <c r="I5" s="15">
-        <v>44126</v>
-      </c>
-      <c r="J5" s="15">
-        <v>44127</v>
-      </c>
-      <c r="K5" s="15">
-        <v>44128</v>
-      </c>
-      <c r="L5" s="15">
-        <v>44129</v>
-      </c>
-      <c r="M5" s="15">
-        <v>44130</v>
-      </c>
-      <c r="N5" s="15">
-        <v>44131</v>
-      </c>
-      <c r="O5" s="15">
-        <v>44132</v>
-      </c>
-      <c r="P5" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>16</v>
-      </c>
-      <c r="R5" s="16">
-        <v>17</v>
-      </c>
-      <c r="S5" s="16">
-        <v>18</v>
-      </c>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <v>19</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="15">
         <v>20</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <v>21</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="15">
         <v>22</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="15">
         <v>23</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="15">
         <v>24</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="15">
         <v>25</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AA5" s="15">
         <v>26</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="15">
         <v>27</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="15">
         <v>28</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AD5" s="15">
         <v>29</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AE5" s="15">
         <v>30</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>8</v>
+      <c r="A6" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46">
-        <v>1</v>
-      </c>
-      <c r="J6" s="46">
-        <v>2</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23"/>
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="24"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46">
-        <v>1</v>
-      </c>
-      <c r="J7" s="47">
-        <v>2</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="24"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46">
-        <v>1</v>
-      </c>
-      <c r="J8" s="47">
-        <v>2</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="47">
-        <v>1</v>
-      </c>
-      <c r="J9" s="47">
-        <v>2</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="47">
-        <v>2</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="13" t="s">
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="13" t="s">
+      <c r="O11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA11" s="13" t="s">
+      <c r="V11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>14</v>
+      <c r="AC11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="AF11" s="48"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>6</v>
+      </c>
+      <c r="H12" s="15">
+        <v>7</v>
+      </c>
+      <c r="I12" s="15">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>9</v>
+      </c>
+      <c r="K12" s="15">
+        <v>10</v>
+      </c>
+      <c r="L12" s="15">
+        <v>11</v>
+      </c>
+      <c r="M12" s="15">
+        <v>12</v>
+      </c>
+      <c r="N12" s="15">
+        <v>13</v>
+      </c>
+      <c r="O12" s="15">
+        <v>14</v>
+      </c>
+      <c r="P12" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>16</v>
+      </c>
+      <c r="R12" s="15">
+        <v>17</v>
+      </c>
+      <c r="S12" s="15">
         <v>18</v>
       </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16">
-        <v>6</v>
-      </c>
-      <c r="H12" s="16">
-        <v>7</v>
-      </c>
-      <c r="I12" s="16">
-        <v>8</v>
-      </c>
-      <c r="J12" s="16">
-        <v>9</v>
-      </c>
-      <c r="K12" s="16">
-        <v>10</v>
-      </c>
-      <c r="L12" s="16">
-        <v>11</v>
-      </c>
-      <c r="M12" s="16">
-        <v>12</v>
-      </c>
-      <c r="N12" s="16">
-        <v>13</v>
-      </c>
-      <c r="O12" s="16">
-        <v>14</v>
-      </c>
-      <c r="P12" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>16</v>
-      </c>
-      <c r="R12" s="16">
-        <v>17</v>
-      </c>
-      <c r="S12" s="16">
-        <v>18</v>
-      </c>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <v>19</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="15">
         <v>20</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="15">
         <v>21</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="15">
         <v>22</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="15">
         <v>23</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="15">
         <v>24</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="15">
         <v>25</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="15">
         <v>26</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="15">
         <v>27</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="15">
         <v>28</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AD12" s="15">
         <v>29</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AE12" s="15">
         <v>30</v>
       </c>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="15"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>8</v>
+      <c r="A13" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5676,337 +5572,337 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="14"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="14"/>
+      <c r="A14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="13"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="14"/>
+      <c r="A15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="13"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="14"/>
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="14"/>
+      <c r="A17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="13"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="13" t="s">
+      <c r="L18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
+      <c r="S18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
       <c r="AF18" s="48"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15">
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15">
+        <v>8</v>
+      </c>
+      <c r="J19" s="15">
+        <v>9</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10</v>
+      </c>
+      <c r="L19" s="15">
+        <v>11</v>
+      </c>
+      <c r="M19" s="15">
+        <v>12</v>
+      </c>
+      <c r="N19" s="15">
+        <v>13</v>
+      </c>
+      <c r="O19" s="15">
+        <v>14</v>
+      </c>
+      <c r="P19" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>16</v>
+      </c>
+      <c r="R19" s="15">
+        <v>17</v>
+      </c>
+      <c r="S19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-      <c r="E19" s="16">
-        <v>4</v>
-      </c>
-      <c r="F19" s="16">
-        <v>5</v>
-      </c>
-      <c r="G19" s="16">
-        <v>6</v>
-      </c>
-      <c r="H19" s="16">
-        <v>7</v>
-      </c>
-      <c r="I19" s="16">
-        <v>8</v>
-      </c>
-      <c r="J19" s="16">
-        <v>9</v>
-      </c>
-      <c r="K19" s="16">
-        <v>10</v>
-      </c>
-      <c r="L19" s="16">
-        <v>11</v>
-      </c>
-      <c r="M19" s="16">
-        <v>12</v>
-      </c>
-      <c r="N19" s="16">
-        <v>13</v>
-      </c>
-      <c r="O19" s="16">
-        <v>14</v>
-      </c>
-      <c r="P19" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>16</v>
-      </c>
-      <c r="R19" s="16">
-        <v>17</v>
-      </c>
-      <c r="S19" s="16">
-        <v>18</v>
-      </c>
-      <c r="T19" s="16">
+      <c r="T19" s="15">
         <v>19</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="15">
         <v>20</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="15">
         <v>21</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="15">
         <v>22</v>
       </c>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>8</v>
+      <c r="A20" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -6015,260 +5911,260 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="14"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="14"/>
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="13"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="14"/>
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="13"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="14"/>
+      <c r="A23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="14"/>
+      <c r="A24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="40" t="s">
+      <c r="A26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="73" t="s">
+      <c r="H26" s="41"/>
+      <c r="I26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="74"/>
+      <c r="J26" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="80"/>
       <c r="L26" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="41"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7248,28 +7144,26 @@
   <mergeCells count="1">
     <mergeCell ref="J26:K26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0066CC"/>
+    <tabColor rgb="FF1155CC"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="41.7109375" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7277,27 +7171,27 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44127</v>
+        <v>44120</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7316,19 +7210,19 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7340,7 +7234,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
@@ -7367,55 +7261,55 @@
       <c r="F8" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66">
         <v>2</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66">
         <v>3</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8408,8 +8302,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources-P3-2-54567.xlsx
+++ b/Resources-P3-2-54567.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Santos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E719BE-5136-409A-8B92-35B10BFE98AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD6FE5-254E-444F-9A2D-71C5FD63E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="1" r:id="rId1"/>
-    <sheet name="Planned Availability" sheetId="6" r:id="rId2"/>
-    <sheet name="Attendance Tracker" sheetId="7" r:id="rId3"/>
-    <sheet name="Team roles" sheetId="14" r:id="rId4"/>
+    <sheet name="Planned Availability" sheetId="2" r:id="rId2"/>
+    <sheet name="Attendance Tracker" sheetId="3" r:id="rId3"/>
+    <sheet name="Team roles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mghk4+NJamXr6rqbHkyYsc3UL0WoQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -47,34 +50,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>NOVEMBER</t>
-  </si>
-  <si>
-    <t>DECEMBER</t>
-  </si>
-  <si>
     <t>Week Number</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Team Oracle</t>
+    <t>P3-2</t>
   </si>
   <si>
     <t>Resource Manager</t>
-  </si>
-  <si>
-    <t>Team Wizard</t>
-  </si>
-  <si>
-    <t>P3-2</t>
   </si>
   <si>
     <t>Ana Santos</t>
@@ -134,6 +119,9 @@
     <t>Legend</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>Work for Project</t>
   </si>
   <si>
@@ -149,22 +137,37 @@
     <t>personal</t>
   </si>
   <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
     <t>Work Project</t>
   </si>
   <si>
     <t>Personal</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Sick</t>
   </si>
   <si>
-    <t>Phase</t>
+    <t>Team Wizard</t>
   </si>
   <si>
     <t>Team Critic</t>
   </si>
   <si>
     <t>Team Spokesman</t>
+  </si>
+  <si>
+    <t>Team Oracle</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
   <si>
     <t>55286 : Bruno Ramos</t>
@@ -188,18 +191,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -214,14 +214,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -239,12 +239,12 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF003366"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF003366"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -270,13 +270,17 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF003366"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF980000"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -287,7 +291,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF980000"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -311,56 +315,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F497D"/>
-        <bgColor rgb="FF1F497D"/>
+        <fgColor rgb="FF333399"/>
+        <bgColor rgb="FF333399"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF4F81BD"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEECE1"/>
-        <bgColor rgb="FFEEECE1"/>
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
-        <bgColor rgb="FF8064A2"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FFC0504D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor rgb="FFF79646"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -371,30 +375,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor rgb="FF741B47"/>
+        <fgColor rgb="FF993366"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
+        <fgColor rgb="FF3366FF"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
+        <fgColor rgb="FF339966"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF85200C"/>
-        <bgColor rgb="FF85200C"/>
+        <fgColor rgb="FF993300"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -419,12 +423,43 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -462,6 +497,30 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -470,6 +529,29 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -502,115 +584,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,17 +703,9 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +738,7 @@
         <xdr:cNvPr id="2" name="image2.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A9F27A-3980-4187-8AA5-DC80C8E4AB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDE3957-591C-473C-8389-E78B706C6FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,6 +751,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="1000125"/>
+          <a:ext cx="1724025" cy="1676400"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -686,17 +766,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1390650" cy="1714500"/>
+    <xdr:ext cx="1352550" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image3.png" title="Image">
+        <xdr:cNvPr id="4" name="image4.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BC1655-48C0-4B43-971B-6769DB2FEE01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133997F9-DF15-4168-94DF-D303B42489E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,6 +789,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="1000125"/>
+          <a:ext cx="1352550" cy="1714500"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -719,18 +803,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1352550" cy="1714500"/>
+    <xdr:ext cx="1390650" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image4.png" title="Image">
+        <xdr:cNvPr id="5" name="image3.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F86D2-0D69-43DE-9A88-5337F070B894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ADA731-107F-4DBF-A677-32E867E358D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,6 +827,48 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="1000125"/>
+          <a:ext cx="1390650" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1057275" cy="1714500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image6.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85406D9-8F14-4783-94BD-CF10EFA56025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="1000125"/>
+          <a:ext cx="1057275" cy="1714500"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -756,53 +882,15 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1466850" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image5.png" title="Image">
+        <xdr:cNvPr id="7" name="image5.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7F027A-B689-4C1E-AD90-155985091322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13173075" y="1047750"/>
-          <a:ext cx="1466850" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1057275" cy="1714500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image6.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAF6665-1A11-4E2D-BFCB-28B85722D5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72068140-3DCC-4462-9D19-599ADBF5DBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,6 +903,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13173075" y="1000125"/>
+          <a:ext cx="1466850" cy="1714500"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1023,19 +1115,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1131,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1139,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1059,8 +1147,8 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>44120</v>
+      <c r="B4" s="4">
+        <v>44127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2060,26 +2148,24 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF1155CC"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <tabColor rgb="FF0066CC"/>
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="32" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,346 +2173,346 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>18</v>
+      <c r="AE5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44119</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44120</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44121</v>
+      </c>
+      <c r="E6" s="15">
+        <v>44122</v>
+      </c>
+      <c r="F6" s="15">
+        <v>44123</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44124</v>
+      </c>
+      <c r="H6" s="15">
+        <v>44125</v>
+      </c>
+      <c r="I6" s="15">
+        <v>44126</v>
+      </c>
+      <c r="J6" s="15">
+        <v>44127</v>
+      </c>
+      <c r="K6" s="15">
+        <v>44128</v>
+      </c>
+      <c r="L6" s="15">
+        <v>44129</v>
+      </c>
+      <c r="M6" s="15">
+        <v>44130</v>
+      </c>
+      <c r="N6" s="15">
+        <v>44131</v>
+      </c>
+      <c r="O6" s="15">
+        <v>44132</v>
+      </c>
+      <c r="P6" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>16</v>
+      </c>
+      <c r="R6" s="16">
+        <v>17</v>
+      </c>
+      <c r="S6" s="16">
+        <v>18</v>
+      </c>
+      <c r="T6" s="16">
+        <v>19</v>
+      </c>
+      <c r="U6" s="16">
+        <v>20</v>
+      </c>
+      <c r="V6" s="16">
+        <v>21</v>
+      </c>
+      <c r="W6" s="16">
+        <v>22</v>
+      </c>
+      <c r="X6" s="16">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="16">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>6</v>
-      </c>
-      <c r="H6" s="15">
-        <v>7</v>
-      </c>
-      <c r="I6" s="15">
-        <v>8</v>
-      </c>
-      <c r="J6" s="15">
-        <v>9</v>
-      </c>
-      <c r="K6" s="15">
-        <v>10</v>
-      </c>
-      <c r="L6" s="15">
-        <v>11</v>
-      </c>
-      <c r="M6" s="15">
-        <v>12</v>
-      </c>
-      <c r="N6" s="15">
-        <v>13</v>
-      </c>
-      <c r="O6" s="15">
-        <v>14</v>
-      </c>
-      <c r="P6" s="15">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>16</v>
-      </c>
-      <c r="R6" s="15">
-        <v>17</v>
-      </c>
-      <c r="S6" s="15">
-        <v>18</v>
-      </c>
-      <c r="T6" s="15">
-        <v>19</v>
-      </c>
-      <c r="U6" s="15">
-        <v>20</v>
-      </c>
-      <c r="V6" s="15">
-        <v>21</v>
-      </c>
-      <c r="W6" s="15">
-        <v>22</v>
-      </c>
-      <c r="X6" s="15">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="16">
         <v>25</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="16">
         <v>26</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="16">
         <v>27</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="16">
         <v>28</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="16">
         <v>29</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="16">
         <v>30</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="16">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>14</v>
+      <c r="A7" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18">
@@ -2445,609 +2531,609 @@
       <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>3</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>3</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>4</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>2</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <v>1</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="21">
         <v>1</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="24"/>
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="23"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>4</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>3</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>3</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>3</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>2</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>3</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="21">
         <v>3</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="21">
         <v>2.5</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="27">
+      <c r="N8" s="26"/>
+      <c r="O8" s="21">
         <v>2</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="24"/>
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>2.5</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>2</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>1.5</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>2</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>2</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="25">
+      <c r="J9" s="28"/>
+      <c r="K9" s="24">
         <v>2.5</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="21">
         <v>3</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="21">
         <v>2</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="21">
         <v>2</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="21">
         <v>2.5</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="24"/>
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="23"/>
       <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>2</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>3.5</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="25">
+      <c r="I10" s="30"/>
+      <c r="J10" s="24">
         <v>3</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>3</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="21">
         <v>2</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="21">
         <v>2</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <v>2.5</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="21">
         <v>2</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33">
+      <c r="F11" s="33"/>
+      <c r="G11" s="32">
         <v>1</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="32">
         <v>3</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <v>2</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>2.5</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>3</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>1</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>1.5</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <v>3</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="38">
+      <c r="A12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="37">
         <f t="shared" ref="B12:AF12" si="0">SUM(B7:B11)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="37">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="38">
+      <c r="X12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Y12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="38">
+      <c r="AA12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="38">
+      <c r="AB12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="38">
+      <c r="AF12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="39" t="s">
+      <c r="G13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="39" t="s">
+      <c r="N13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB13" s="39" t="s">
+      <c r="U13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AC13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="39"/>
+      <c r="AB13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="38"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16">
+        <v>6</v>
+      </c>
+      <c r="H14" s="16">
+        <v>7</v>
+      </c>
+      <c r="I14" s="16">
+        <v>8</v>
+      </c>
+      <c r="J14" s="16">
+        <v>9</v>
+      </c>
+      <c r="K14" s="16">
+        <v>10</v>
+      </c>
+      <c r="L14" s="16">
+        <v>11</v>
+      </c>
+      <c r="M14" s="16">
+        <v>12</v>
+      </c>
+      <c r="N14" s="16">
+        <v>13</v>
+      </c>
+      <c r="O14" s="16">
+        <v>14</v>
+      </c>
+      <c r="P14" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>16</v>
+      </c>
+      <c r="R14" s="16">
+        <v>17</v>
+      </c>
+      <c r="S14" s="16">
+        <v>18</v>
+      </c>
+      <c r="T14" s="16">
+        <v>19</v>
+      </c>
+      <c r="U14" s="16">
+        <v>20</v>
+      </c>
+      <c r="V14" s="16">
+        <v>21</v>
+      </c>
+      <c r="W14" s="16">
+        <v>22</v>
+      </c>
+      <c r="X14" s="16">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="16">
         <v>24</v>
       </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="15">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15">
-        <v>6</v>
-      </c>
-      <c r="H14" s="15">
-        <v>7</v>
-      </c>
-      <c r="I14" s="15">
-        <v>8</v>
-      </c>
-      <c r="J14" s="15">
-        <v>9</v>
-      </c>
-      <c r="K14" s="15">
-        <v>10</v>
-      </c>
-      <c r="L14" s="15">
-        <v>11</v>
-      </c>
-      <c r="M14" s="15">
-        <v>12</v>
-      </c>
-      <c r="N14" s="15">
-        <v>13</v>
-      </c>
-      <c r="O14" s="15">
-        <v>14</v>
-      </c>
-      <c r="P14" s="15">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>16</v>
-      </c>
-      <c r="R14" s="15">
-        <v>17</v>
-      </c>
-      <c r="S14" s="15">
-        <v>18</v>
-      </c>
-      <c r="T14" s="15">
-        <v>19</v>
-      </c>
-      <c r="U14" s="15">
-        <v>20</v>
-      </c>
-      <c r="V14" s="15">
-        <v>21</v>
-      </c>
-      <c r="W14" s="15">
-        <v>22</v>
-      </c>
-      <c r="X14" s="15">
-        <v>23</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>24</v>
-      </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="16">
         <v>25</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="16">
         <v>26</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="16">
         <v>27</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="16">
         <v>28</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="16">
         <v>29</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="16">
         <v>30</v>
       </c>
-      <c r="AF14" s="15"/>
+      <c r="AF14" s="16"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
+      <c r="A15" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3057,466 +3143,466 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="13"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="14"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="13"/>
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="14"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="13"/>
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="14"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="38">
+      <c r="A20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="37">
         <f t="shared" ref="B20:AF20" si="1">SUM(B15:B19)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="38">
+      <c r="Z20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="38">
+      <c r="AB20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="38">
+      <c r="AE20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="38">
+      <c r="AF20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="39" t="s">
+      <c r="D21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="39" t="s">
+      <c r="K21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
+      <c r="R21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="15">
+      <c r="A22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
         <v>1</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>3</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="16">
         <v>4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="16">
         <v>5</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="16">
         <v>6</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="16">
         <v>7</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="16">
         <v>8</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="16">
         <v>9</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="16">
         <v>10</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="16">
         <v>11</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="16">
         <v>12</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="16">
         <v>13</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="16">
         <v>14</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="16">
         <v>15</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="16">
         <v>16</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="16">
         <v>17</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="16">
         <v>18</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="16">
         <v>19</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="16">
         <v>20</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="16">
         <v>21</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="16">
         <v>22</v>
       </c>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>14</v>
+      <c r="A23" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3526,350 +3612,350 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="13"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="13"/>
+      <c r="A24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="14"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="13"/>
+      <c r="A25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="14"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="13"/>
+      <c r="A27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="14"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="38">
+      <c r="A28" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="37">
         <f t="shared" ref="B28:AF28" si="2">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28" s="38">
+      <c r="R28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="38">
+      <c r="S28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="38">
+      <c r="T28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V28" s="38">
+      <c r="V28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W28" s="38">
+      <c r="W28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X28" s="38">
+      <c r="X28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="38">
+      <c r="Y28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="38">
+      <c r="Z28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="38">
+      <c r="AA28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="38">
+      <c r="AB28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="38">
+      <c r="AC28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="38">
+      <c r="AD28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="38">
+      <c r="AE28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="38">
+      <c r="AF28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4846,26 +4932,24 @@
   <mergeCells count="1">
     <mergeCell ref="J29:K29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF1155CC"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <tabColor rgb="FF0066CC"/>
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="32" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,696 +4957,716 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>18</v>
+      <c r="AE4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44119</v>
+      </c>
+      <c r="C5" s="15">
+        <v>44120</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44121</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44122</v>
+      </c>
+      <c r="F5" s="15">
+        <v>44123</v>
+      </c>
+      <c r="G5" s="15">
+        <v>44124</v>
+      </c>
+      <c r="H5" s="15">
+        <v>44125</v>
+      </c>
+      <c r="I5" s="15">
+        <v>44126</v>
+      </c>
+      <c r="J5" s="15">
+        <v>44127</v>
+      </c>
+      <c r="K5" s="15">
+        <v>44128</v>
+      </c>
+      <c r="L5" s="15">
+        <v>44129</v>
+      </c>
+      <c r="M5" s="15">
+        <v>44130</v>
+      </c>
+      <c r="N5" s="15">
+        <v>44131</v>
+      </c>
+      <c r="O5" s="15">
+        <v>44132</v>
+      </c>
+      <c r="P5" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>16</v>
+      </c>
+      <c r="R5" s="16">
+        <v>17</v>
+      </c>
+      <c r="S5" s="16">
+        <v>18</v>
+      </c>
+      <c r="T5" s="16">
+        <v>19</v>
+      </c>
+      <c r="U5" s="16">
+        <v>20</v>
+      </c>
+      <c r="V5" s="16">
+        <v>21</v>
+      </c>
+      <c r="W5" s="16">
+        <v>22</v>
+      </c>
+      <c r="X5" s="16">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="16">
         <v>24</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15">
-        <v>6</v>
-      </c>
-      <c r="H5" s="15">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15">
-        <v>8</v>
-      </c>
-      <c r="J5" s="15">
-        <v>9</v>
-      </c>
-      <c r="K5" s="15">
-        <v>10</v>
-      </c>
-      <c r="L5" s="15">
-        <v>11</v>
-      </c>
-      <c r="M5" s="15">
-        <v>12</v>
-      </c>
-      <c r="N5" s="15">
-        <v>13</v>
-      </c>
-      <c r="O5" s="15">
-        <v>14</v>
-      </c>
-      <c r="P5" s="15">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>16</v>
-      </c>
-      <c r="R5" s="15">
-        <v>17</v>
-      </c>
-      <c r="S5" s="15">
-        <v>18</v>
-      </c>
-      <c r="T5" s="15">
-        <v>19</v>
-      </c>
-      <c r="U5" s="15">
-        <v>20</v>
-      </c>
-      <c r="V5" s="15">
-        <v>21</v>
-      </c>
-      <c r="W5" s="15">
-        <v>22</v>
-      </c>
-      <c r="X5" s="15">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="16">
         <v>25</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="16">
         <v>26</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="16">
         <v>27</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="16">
         <v>28</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="16">
         <v>29</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="16">
         <v>30</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="16">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
+      <c r="A6" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46">
+        <v>1</v>
+      </c>
+      <c r="J6" s="46">
+        <v>2</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="47">
+        <v>2</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="24"/>
+      <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="23"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46">
+        <v>1</v>
+      </c>
+      <c r="J8" s="47">
+        <v>2</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="24"/>
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="47">
+        <v>1</v>
+      </c>
+      <c r="J9" s="47">
+        <v>2</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="24"/>
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="23"/>
       <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
+        <v>2</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="A11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="G11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="12" t="s">
+      <c r="N11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="12" t="s">
+      <c r="U11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AC11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>20</v>
+      <c r="AB11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="AF11" s="48"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16">
+        <v>7</v>
+      </c>
+      <c r="I12" s="16">
+        <v>8</v>
+      </c>
+      <c r="J12" s="16">
+        <v>9</v>
+      </c>
+      <c r="K12" s="16">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16">
+        <v>11</v>
+      </c>
+      <c r="M12" s="16">
+        <v>12</v>
+      </c>
+      <c r="N12" s="16">
+        <v>13</v>
+      </c>
+      <c r="O12" s="16">
+        <v>14</v>
+      </c>
+      <c r="P12" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>16</v>
+      </c>
+      <c r="R12" s="16">
+        <v>17</v>
+      </c>
+      <c r="S12" s="16">
+        <v>18</v>
+      </c>
+      <c r="T12" s="16">
+        <v>19</v>
+      </c>
+      <c r="U12" s="16">
+        <v>20</v>
+      </c>
+      <c r="V12" s="16">
+        <v>21</v>
+      </c>
+      <c r="W12" s="16">
+        <v>22</v>
+      </c>
+      <c r="X12" s="16">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="16">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15">
-        <v>6</v>
-      </c>
-      <c r="H12" s="15">
-        <v>7</v>
-      </c>
-      <c r="I12" s="15">
-        <v>8</v>
-      </c>
-      <c r="J12" s="15">
-        <v>9</v>
-      </c>
-      <c r="K12" s="15">
-        <v>10</v>
-      </c>
-      <c r="L12" s="15">
-        <v>11</v>
-      </c>
-      <c r="M12" s="15">
-        <v>12</v>
-      </c>
-      <c r="N12" s="15">
-        <v>13</v>
-      </c>
-      <c r="O12" s="15">
-        <v>14</v>
-      </c>
-      <c r="P12" s="15">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>16</v>
-      </c>
-      <c r="R12" s="15">
-        <v>17</v>
-      </c>
-      <c r="S12" s="15">
-        <v>18</v>
-      </c>
-      <c r="T12" s="15">
-        <v>19</v>
-      </c>
-      <c r="U12" s="15">
-        <v>20</v>
-      </c>
-      <c r="V12" s="15">
-        <v>21</v>
-      </c>
-      <c r="W12" s="15">
-        <v>22</v>
-      </c>
-      <c r="X12" s="15">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="16">
         <v>25</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="16">
         <v>26</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="16">
         <v>27</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="16">
         <v>28</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="16">
         <v>29</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="16">
         <v>30</v>
       </c>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>14</v>
+      <c r="A13" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5572,337 +5676,337 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="13"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="14"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="13"/>
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="14"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="13"/>
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="14"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="D18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="12" t="s">
+      <c r="K18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
+      <c r="R18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
       <c r="AF18" s="48"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>4</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <v>5</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="16">
         <v>6</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="16">
         <v>7</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="16">
         <v>8</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="16">
         <v>9</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="16">
         <v>10</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="16">
         <v>11</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="16">
         <v>12</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="16">
         <v>13</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="16">
         <v>14</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="16">
         <v>15</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="16">
         <v>16</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="16">
         <v>17</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="16">
         <v>18</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="16">
         <v>19</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="16">
         <v>20</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="16">
         <v>21</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="16">
         <v>22</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>14</v>
+      <c r="A20" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5911,260 +6015,260 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="13"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="14"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="13"/>
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="14"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="13"/>
+      <c r="A22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="14"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="13"/>
+      <c r="A23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="13"/>
+      <c r="A24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="14"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="41" t="s">
+      <c r="A26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="74"/>
+      <c r="L26" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7144,26 +7248,28 @@
   <mergeCells count="1">
     <mergeCell ref="J26:K26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF1155CC"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <tabColor rgb="FF0066CC"/>
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7171,27 +7277,27 @@
         <v>3</v>
       </c>
       <c r="B1" s="6">
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7210,19 +7316,19 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,7 +7340,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
@@ -7261,55 +7367,55 @@
       <c r="F8" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66">
         <v>2</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66">
         <v>3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8302,7 +8408,8 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>